--- a/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAE1A3-5B84-4304-BB86-5927D37AFD22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF173A-C68F-4AC5-A6FA-8080FEA1785F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -93,25 +93,16 @@
     <t>BH_8887_G2_Case2_1</t>
   </si>
   <si>
-    <t>BH_8887_G2_Case3_1</t>
-  </si>
-  <si>
     <t>BH_8887_G3_Case1_1</t>
   </si>
   <si>
     <t>BH_8887_G3_Case2_1</t>
   </si>
   <si>
-    <t>BH_8887_G3_Case3_1</t>
-  </si>
-  <si>
     <t>BH_8887_G4_Case1_1</t>
   </si>
   <si>
     <t>BH_8887_G4_Case2_1</t>
-  </si>
-  <si>
-    <t>BH_8887_G4_Case3_1</t>
   </si>
   <si>
     <t>BH_8887_G1_Case1_2</t>
@@ -184,25 +175,16 @@
     <t>BH_8887_G4_Case2_2</t>
   </si>
   <si>
-    <t>BH_8887_G4_Case3_2</t>
-  </si>
-  <si>
     <t>BH_8887_G3_Case1_2</t>
   </si>
   <si>
     <t>BH_8887_G3_Case2_2</t>
   </si>
   <si>
-    <t>BH_8887_G3_Case3_2</t>
-  </si>
-  <si>
     <t>BH_8887_G2_Case1_2</t>
   </si>
   <si>
     <t>BH_8887_G2_Case2_2</t>
-  </si>
-  <si>
-    <t>BH_8887_G2_Case3_2</t>
   </si>
   <si>
     <t>1. Product type: IMEI - without variation
@@ -324,11 +306,36 @@
     - Discount campaign is schedule
     - Product has wholesale product</t>
   </si>
+  <si>
+    <t>BH_8887_G2_Case1_3</t>
+  </si>
+  <si>
+    <t>BH_8887_G3_Case1_3</t>
+  </si>
+  <si>
+    <t>BH_8887_G4_Case1_3</t>
+  </si>
+  <si>
+    <t>BH_8887_G2_Case2_3</t>
+  </si>
+  <si>
+    <t>BH_8887_G3_Case2_3</t>
+  </si>
+  <si>
+    <t>BH_8887_G4_Case2_3</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -683,11 +690,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -718,53 +725,59 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -775,53 +788,59 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
@@ -832,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>11</v>
@@ -840,18 +859,20 @@
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
@@ -859,18 +880,20 @@
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -878,18 +901,20 @@
       <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -897,18 +922,20 @@
       <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
@@ -916,18 +943,20 @@
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
@@ -935,18 +964,20 @@
       <c r="E13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -954,18 +985,20 @@
       <c r="E14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>12</v>
@@ -973,18 +1006,20 @@
       <c r="E15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>13</v>
@@ -992,18 +1027,20 @@
       <c r="E16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>11</v>
@@ -1011,18 +1048,20 @@
       <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>12</v>
@@ -1030,18 +1069,20 @@
       <c r="E18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
@@ -1049,18 +1090,20 @@
       <c r="E19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>11</v>
@@ -1068,18 +1111,20 @@
       <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>12</v>
@@ -1087,18 +1132,20 @@
       <c r="E21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>13</v>
@@ -1106,18 +1153,20 @@
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>11</v>
@@ -1125,18 +1174,20 @@
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>12</v>
@@ -1144,18 +1195,20 @@
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>13</v>
@@ -1163,7 +1216,9 @@
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>OTHER STATUS</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1070,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1112,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1133,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1154,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1175,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2"/>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
@@ -3,24 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF173A-C68F-4AC5-A6FA-8080FEA1785F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA817935-FA62-48EB-99CC-9F67718C7846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$25</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>Pre-condition</t>
@@ -328,17 +328,16 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Result VIE</t>
   </si>
   <si>
-    <t>OTHER STATUS</t>
+    <t>Result ENG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -430,13 +429,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -464,9 +460,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,536 +686,587 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>

--- a/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -333,11 +333,15 @@
   <si>
     <t>Result ENG</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -686,11 +690,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1216,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>58</v>
@@ -1262,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>58</v>

--- a/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -736,10 +736,10 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -759,10 +759,10 @@
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -782,10 +782,10 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -805,10 +805,10 @@
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -828,10 +828,10 @@
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -851,10 +851,10 @@
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -874,10 +874,10 @@
       <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -897,10 +897,10 @@
       <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -920,10 +920,10 @@
       <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -943,10 +943,10 @@
       <c r="E11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -966,10 +966,10 @@
       <c r="E12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -989,10 +989,10 @@
       <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1012,10 +1012,10 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1035,10 +1035,10 @@
       <c r="E15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1058,10 +1058,10 @@
       <c r="E16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1081,10 +1081,10 @@
       <c r="E17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1104,10 +1104,10 @@
       <c r="E18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1127,10 +1127,10 @@
       <c r="E19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1150,10 +1150,10 @@
       <c r="E20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
       <c r="E21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1196,10 +1196,10 @@
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1219,10 +1219,10 @@
       <c r="E23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1242,10 +1242,10 @@
       <c r="E24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -1265,10 +1265,10 @@
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s" s="0">
         <v>58</v>
       </c>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/BH_8887_View discount campaign at product detail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="63">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>OTHER STATUS</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>58</v>
@@ -1174,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s" s="0">
         <v>58</v>
@@ -1197,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s" s="0">
         <v>58</v>
@@ -1220,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s" s="0">
         <v>58</v>
@@ -1266,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s" s="0">
         <v>58</v>
